--- a/IPC2024_base2010/imputacion/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_3_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.3113098167185</v>
+        <v>193.3100812424383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.8756051621083</v>
+        <v>154.8749496132649</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>299.0043085279967</v>
+        <v>299.0792240926224</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>504.3585931144466</v>
+        <v>504.3599203246227</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5610361360111</v>
+        <v>121.5607776571308</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.7612661754542</v>
+        <v>134.7615432642264</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.3771149940649</v>
+        <v>137.393320384174</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.8960724908421</v>
+        <v>126.8960259775814</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.0782610930911</v>
+        <v>113.0695572112354</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.53581226880567</v>
+        <v>92.53647473645883</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.3576113645809</v>
+        <v>154.364063989347</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>184.7422919563725</v>
+        <v>184.7384791105083</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.8502240290289</v>
+        <v>144.8480873447405</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>358.3921567317849</v>
+        <v>358.5467506698348</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.5610643472615</v>
+        <v>144.5618264250247</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.6777574705251</v>
+        <v>147.7244763023088</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.489293153507</v>
+        <v>123.489127220127</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.2179654763204</v>
+        <v>112.2133424605945</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.5213655372271</v>
+        <v>90.52309074094153</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>157.7482998204461</v>
+        <v>157.7701821410967</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.3424193574673</v>
+        <v>111.3414486336268</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.7061729307439</v>
+        <v>111.7027507089453</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4909921938656</v>
+        <v>113.4803010205773</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.0566291919473</v>
+        <v>119.054431503659</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.033612926078</v>
+        <v>114.0209100027713</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>403.3692215107249</v>
+        <v>403.3772684795787</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9260097575426</v>
+        <v>114.9087762820512</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.8364051746395</v>
+        <v>114.8198386606316</v>
       </c>
     </row>
     <row r="2133" spans="1:4">

--- a/IPC2024_base2010/imputacion/indprod_3_2024.xlsx
+++ b/IPC2024_base2010/imputacion/indprod_3_2024.xlsx
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.3100812424383</v>
+        <v>193.3113098167185</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.8749496132649</v>
+        <v>154.8756051621083</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1538,7 +1538,7 @@
         <v>31</v>
       </c>
       <c r="D21">
-        <v>299.0792240926224</v>
+        <v>299.0043085279967</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>504.3599203246227</v>
+        <v>504.3585931144466</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5607776571308</v>
+        <v>121.5610361360111</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>134.7615432642264</v>
+        <v>134.7612661754542</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3568,7 +3568,7 @@
         <v>176</v>
       </c>
       <c r="D166">
-        <v>137.393320384174</v>
+        <v>137.3771149940649</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.8960259775814</v>
+        <v>126.8960724908421</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>113.0695572112354</v>
+        <v>113.0782610930911</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.1165796345555</v>
+        <v>136.9008760853236</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4030,7 +4030,7 @@
         <v>209</v>
       </c>
       <c r="D199">
-        <v>124.2906920719744</v>
+        <v>122.8564663804753</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.53647473645883</v>
+        <v>92.53581226880567</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4156,7 +4156,7 @@
         <v>218</v>
       </c>
       <c r="D208">
-        <v>94.93565576210666</v>
+        <v>98.63286827819456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4170,7 +4170,7 @@
         <v>219</v>
       </c>
       <c r="D209">
-        <v>100.8053192272084</v>
+        <v>89.42972257476326</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4268,7 +4268,7 @@
         <v>226</v>
       </c>
       <c r="D216">
-        <v>113.5468896877294</v>
+        <v>115.6371775733983</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
       <c r="D221">
-        <v>111.5284250089595</v>
+        <v>106.6462176394454</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4394,7 +4394,7 @@
         <v>235</v>
       </c>
       <c r="D225">
-        <v>195.1840192005957</v>
+        <v>196.7148742531493</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4478,7 +4478,7 @@
         <v>241</v>
       </c>
       <c r="D231">
-        <v>99.99999999999999</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4492,7 +4492,7 @@
         <v>242</v>
       </c>
       <c r="D232">
-        <v>139.5842809590689</v>
+        <v>130.5479453706533</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4548,7 +4548,7 @@
         <v>246</v>
       </c>
       <c r="D236">
-        <v>128.1381991988183</v>
+        <v>129.7929621888248</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4562,7 +4562,7 @@
         <v>247</v>
       </c>
       <c r="D237">
-        <v>281.8546783229497</v>
+        <v>245.3747976026467</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.9457023050519</v>
+        <v>113.8092657772488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>154.364063989347</v>
+        <v>154.3576113645809</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4744,7 +4744,7 @@
         <v>260</v>
       </c>
       <c r="D250">
-        <v>115.7004140605567</v>
+        <v>113.179559998933</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4800,7 +4800,7 @@
         <v>264</v>
       </c>
       <c r="D254">
-        <v>119.2531338470616</v>
+        <v>111.7459749915842</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4814,7 +4814,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>117.7639966308485</v>
+        <v>125.6754496405006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4926,7 +4926,7 @@
         <v>273</v>
       </c>
       <c r="D263">
-        <v>119.1163055799676</v>
+        <v>122.3416484559876</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5122,7 +5122,7 @@
         <v>287</v>
       </c>
       <c r="D277">
-        <v>117.5995756389794</v>
+        <v>115.4991325860136</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>184.7384791105083</v>
+        <v>184.7422919563725</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>144.8480873447405</v>
+        <v>144.8502240290289</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5444,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="D300">
-        <v>358.5467506698348</v>
+        <v>358.3921567317849</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7404,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="D440">
-        <v>144.5618264250247</v>
+        <v>144.5610643472615</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7474,7 +7474,7 @@
         <v>176</v>
       </c>
       <c r="D445">
-        <v>147.7244763023088</v>
+        <v>147.6777574705251</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -7488,7 +7488,7 @@
         <v>177</v>
       </c>
       <c r="D446">
-        <v>123.489127220127</v>
+        <v>123.489293153507</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>112.2133424605945</v>
+        <v>112.2179654763204</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>199</v>
       </c>
       <c r="D468">
-        <v>133.5540176233022</v>
+        <v>133.3597894025565</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7936,7 +7936,7 @@
         <v>209</v>
       </c>
       <c r="D478">
-        <v>140.100577322387</v>
+        <v>138.7595652038151</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.52309074094153</v>
+        <v>90.5213655372271</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8062,7 +8062,7 @@
         <v>218</v>
       </c>
       <c r="D487">
-        <v>124.0933067674769</v>
+        <v>128.9260466191205</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8076,7 +8076,7 @@
         <v>219</v>
       </c>
       <c r="D488">
-        <v>90.98088493190068</v>
+        <v>80.71394804799382</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8174,7 +8174,7 @@
         <v>226</v>
       </c>
       <c r="D495">
-        <v>113.4837829046119</v>
+        <v>115.5729090557356</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -8244,7 +8244,7 @@
         <v>231</v>
       </c>
       <c r="D500">
-        <v>109.0253277068273</v>
+        <v>104.252694556568</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8300,7 +8300,7 @@
         <v>235</v>
       </c>
       <c r="D504">
-        <v>164.104891</v>
+        <v>165.3919881843137</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -8384,7 +8384,7 @@
         <v>241</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -8398,7 +8398,7 @@
         <v>242</v>
       </c>
       <c r="D511">
-        <v>140.8902983163722</v>
+        <v>130.6268663233563</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -8454,7 +8454,7 @@
         <v>246</v>
       </c>
       <c r="D515">
-        <v>135.9355663074318</v>
+        <v>138.1759324659739</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -8468,7 +8468,7 @@
         <v>247</v>
       </c>
       <c r="D516">
-        <v>362.7971630660597</v>
+        <v>315.8410603216883</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>116.2157620554495</v>
+        <v>116.1005</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8566,7 +8566,7 @@
         <v>254</v>
       </c>
       <c r="D523">
-        <v>157.7701821410967</v>
+        <v>157.7482998204461</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -8650,7 +8650,7 @@
         <v>260</v>
       </c>
       <c r="D529">
-        <v>115.4484034845102</v>
+        <v>112.9330401714664</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -8706,7 +8706,7 @@
         <v>264</v>
       </c>
       <c r="D533">
-        <v>118.627589</v>
+        <v>111.1598091057845</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -8720,7 +8720,7 @@
         <v>265</v>
       </c>
       <c r="D534">
-        <v>118.5762053737496</v>
+        <v>126.5422230337815</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -8832,7 +8832,7 @@
         <v>273</v>
       </c>
       <c r="D542">
-        <v>128.1357152914195</v>
+        <v>131.0746037082511</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -9028,7 +9028,7 @@
         <v>287</v>
       </c>
       <c r="D556">
-        <v>119.6142876493688</v>
+        <v>117.4778598760249</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>111.3414486336268</v>
+        <v>111.3424193574673</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11702,7 +11702,7 @@
         <v>199</v>
       </c>
       <c r="D747">
-        <v>122.0193610239362</v>
+        <v>121.7102381163126</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -11842,7 +11842,7 @@
         <v>209</v>
       </c>
       <c r="D757">
-        <v>116.9320058541146</v>
+        <v>111.9613081376603</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -11968,7 +11968,7 @@
         <v>218</v>
       </c>
       <c r="D766">
-        <v>71.70568107793916</v>
+        <v>74.4982160789117</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -11982,7 +11982,7 @@
         <v>219</v>
       </c>
       <c r="D767">
-        <v>103.4314443853274</v>
+        <v>91.75949689756312</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -12080,7 +12080,7 @@
         <v>226</v>
       </c>
       <c r="D774">
-        <v>90.02521244245153</v>
+        <v>91.6824891101854</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -12150,7 +12150,7 @@
         <v>231</v>
       </c>
       <c r="D779">
-        <v>108.8943774056046</v>
+        <v>104.1274766641515</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -12206,7 +12206,7 @@
         <v>235</v>
       </c>
       <c r="D783">
-        <v>106.39188</v>
+        <v>107.2263261176471</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -12290,7 +12290,7 @@
         <v>241</v>
       </c>
       <c r="D789">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -12304,7 +12304,7 @@
         <v>242</v>
       </c>
       <c r="D790">
-        <v>133.0324742576158</v>
+        <v>128.3033591712981</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -12360,7 +12360,7 @@
         <v>246</v>
       </c>
       <c r="D794">
-        <v>118.1604155663825</v>
+        <v>119.2873229011048</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12374,7 +12374,7 @@
         <v>247</v>
       </c>
       <c r="D795">
-        <v>185.7106933909386</v>
+        <v>161.6745341059623</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.6496016872086</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12556,7 +12556,7 @@
         <v>260</v>
       </c>
       <c r="D808">
-        <v>121.470709669628</v>
+        <v>118.8241337318898</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -12612,7 +12612,7 @@
         <v>264</v>
       </c>
       <c r="D812">
-        <v>118.251332</v>
+        <v>110.8072380331758</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -12626,7 +12626,7 @@
         <v>265</v>
       </c>
       <c r="D813">
-        <v>109.4616057557012</v>
+        <v>116.8152993723668</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -12738,7 +12738,7 @@
         <v>273</v>
       </c>
       <c r="D821">
-        <v>90.76237937191169</v>
+        <v>94.64672863704784</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -12934,7 +12934,7 @@
         <v>287</v>
       </c>
       <c r="D835">
-        <v>100.0984058333333</v>
+        <v>98.31055073263961</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>111.7027507089453</v>
+        <v>111.7061729307439</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15608,7 +15608,7 @@
         <v>199</v>
       </c>
       <c r="D1026">
-        <v>154.1894618437363</v>
+        <v>153.6846385469348</v>
       </c>
     </row>
     <row r="1027" spans="1:4">
@@ -15748,7 +15748,7 @@
         <v>209</v>
       </c>
       <c r="D1036">
-        <v>139.4581055354</v>
+        <v>137.6368438241232</v>
       </c>
     </row>
     <row r="1037" spans="1:4">
@@ -15874,7 +15874,7 @@
         <v>218</v>
       </c>
       <c r="D1045">
-        <v>74.2796494963065</v>
+        <v>77.17242616281564</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15888,7 +15888,7 @@
         <v>219</v>
       </c>
       <c r="D1046">
-        <v>109.5437672619387</v>
+        <v>97.18206133496807</v>
       </c>
     </row>
     <row r="1047" spans="1:4">
@@ -16056,7 +16056,7 @@
         <v>231</v>
       </c>
       <c r="D1058">
-        <v>132.3215606086058</v>
+        <v>126.5291243010272</v>
       </c>
     </row>
     <row r="1059" spans="1:4">
@@ -16112,7 +16112,7 @@
         <v>235</v>
       </c>
       <c r="D1062">
-        <v>81.62257971685678</v>
+        <v>82.26275681267526</v>
       </c>
     </row>
     <row r="1063" spans="1:4">
@@ -16196,7 +16196,7 @@
         <v>241</v>
       </c>
       <c r="D1068">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1069" spans="1:4">
@@ -16210,7 +16210,7 @@
         <v>242</v>
       </c>
       <c r="D1069">
-        <v>125.9057835864963</v>
+        <v>119.1520340171024</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
@@ -16266,7 +16266,7 @@
         <v>246</v>
       </c>
       <c r="D1073">
-        <v>122.5871225051986</v>
+        <v>123.9524431359983</v>
       </c>
     </row>
     <row r="1074" spans="1:4">
@@ -16280,7 +16280,7 @@
         <v>247</v>
       </c>
       <c r="D1074">
-        <v>239.0531216838844</v>
+        <v>208.1129598361819</v>
       </c>
     </row>
     <row r="1075" spans="1:4">
@@ -16364,7 +16364,7 @@
         <v>253</v>
       </c>
       <c r="D1080">
-        <v>106.5408060219988</v>
+        <v>106.3973549957902</v>
       </c>
     </row>
     <row r="1081" spans="1:4">
@@ -16462,7 +16462,7 @@
         <v>260</v>
       </c>
       <c r="D1087">
-        <v>118.9034353087457</v>
+        <v>116.3127945554447</v>
       </c>
     </row>
     <row r="1088" spans="1:4">
@@ -16518,7 +16518,7 @@
         <v>264</v>
       </c>
       <c r="D1091">
-        <v>125.6604545124253</v>
+        <v>117.7499454679747</v>
       </c>
     </row>
     <row r="1092" spans="1:4">
@@ -16532,7 +16532,7 @@
         <v>265</v>
       </c>
       <c r="D1092">
-        <v>125.4028319507431</v>
+        <v>133.8274663096259</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
@@ -16644,7 +16644,7 @@
         <v>273</v>
       </c>
       <c r="D1100">
-        <v>116.450437545924</v>
+        <v>119.4632915607675</v>
       </c>
     </row>
     <row r="1101" spans="1:4">
@@ -16840,7 +16840,7 @@
         <v>287</v>
       </c>
       <c r="D1114">
-        <v>120.3408999101346</v>
+        <v>118.1914941335366</v>
       </c>
     </row>
     <row r="1115" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>113.4803010205773</v>
+        <v>113.4909921938656</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -19514,7 +19514,7 @@
         <v>199</v>
       </c>
       <c r="D1305">
-        <v>145.78551</v>
+        <v>145.5256616065095</v>
       </c>
     </row>
     <row r="1306" spans="1:4">
@@ -19654,7 +19654,7 @@
         <v>209</v>
       </c>
       <c r="D1315">
-        <v>115.3752304079984</v>
+        <v>114.420911671307</v>
       </c>
     </row>
     <row r="1316" spans="1:4">
@@ -19780,7 +19780,7 @@
         <v>218</v>
       </c>
       <c r="D1324">
-        <v>90.35846862492794</v>
+        <v>93.87742531672933</v>
       </c>
     </row>
     <row r="1325" spans="1:4">
@@ -19892,7 +19892,7 @@
         <v>226</v>
       </c>
       <c r="D1332">
-        <v>97.8037307210827</v>
+        <v>99.60420235057194</v>
       </c>
     </row>
     <row r="1333" spans="1:4">
@@ -20018,7 +20018,7 @@
         <v>235</v>
       </c>
       <c r="D1341">
-        <v>100</v>
+        <v>100.7843137254902</v>
       </c>
     </row>
     <row r="1342" spans="1:4">
@@ -20102,7 +20102,7 @@
         <v>241</v>
       </c>
       <c r="D1347">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -20116,7 +20116,7 @@
         <v>242</v>
       </c>
       <c r="D1348">
-        <v>137.75590044395</v>
+        <v>130.5279318877338</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -20172,7 +20172,7 @@
         <v>246</v>
       </c>
       <c r="D1352">
-        <v>116.3254208623051</v>
+        <v>117.4280226075167</v>
       </c>
     </row>
     <row r="1353" spans="1:4">
@@ -20186,7 +20186,7 @@
         <v>247</v>
       </c>
       <c r="D1353">
-        <v>133.9080434891399</v>
+        <v>116.5765963652579</v>
       </c>
     </row>
     <row r="1354" spans="1:4">
@@ -20270,7 +20270,7 @@
         <v>253</v>
       </c>
       <c r="D1359">
-        <v>128.973125381922</v>
+        <v>128.804858</v>
       </c>
     </row>
     <row r="1360" spans="1:4">
@@ -20368,7 +20368,7 @@
         <v>260</v>
       </c>
       <c r="D1366">
-        <v>108.0530697440071</v>
+        <v>105.6988342648451</v>
       </c>
     </row>
     <row r="1367" spans="1:4">
@@ -20424,7 +20424,7 @@
         <v>264</v>
       </c>
       <c r="D1370">
-        <v>121.0976902316696</v>
+        <v>113.4744138591893</v>
       </c>
     </row>
     <row r="1371" spans="1:4">
@@ -20438,7 +20438,7 @@
         <v>265</v>
       </c>
       <c r="D1371">
-        <v>131.9517149176955</v>
+        <v>140.816307</v>
       </c>
     </row>
     <row r="1372" spans="1:4">
@@ -20550,7 +20550,7 @@
         <v>273</v>
       </c>
       <c r="D1379">
-        <v>102.3101546004658</v>
+        <v>106.0073234604627</v>
       </c>
     </row>
     <row r="1380" spans="1:4">
@@ -20746,7 +20746,7 @@
         <v>287</v>
       </c>
       <c r="D1393">
-        <v>119.5341716666667</v>
+        <v>117.3991748428683</v>
       </c>
     </row>
     <row r="1394" spans="1:4">
@@ -21992,7 +21992,7 @@
         <v>97</v>
       </c>
       <c r="D1482">
-        <v>119.054431503659</v>
+        <v>119.0566291919473</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>114.0209100027713</v>
+        <v>114.033612926078</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>199</v>
       </c>
       <c r="D1584">
-        <v>133.348212</v>
+        <v>132.8619567291516</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -23560,7 +23560,7 @@
         <v>209</v>
       </c>
       <c r="D1594">
-        <v>103.1456267379469</v>
+        <v>102.7536638352079</v>
       </c>
     </row>
     <row r="1595" spans="1:4">
@@ -23686,7 +23686,7 @@
         <v>218</v>
       </c>
       <c r="D1603">
-        <v>109.1935980977932</v>
+        <v>113.4460776780203</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -23700,7 +23700,7 @@
         <v>219</v>
       </c>
       <c r="D1604">
-        <v>108.659100287205</v>
+        <v>96.39722653926488</v>
       </c>
     </row>
     <row r="1605" spans="1:4">
@@ -23798,7 +23798,7 @@
         <v>226</v>
       </c>
       <c r="D1611">
-        <v>132.6808045610002</v>
+        <v>135.1233292236959</v>
       </c>
     </row>
     <row r="1612" spans="1:4">
@@ -23924,7 +23924,7 @@
         <v>235</v>
       </c>
       <c r="D1620">
-        <v>86.60250000000001</v>
+        <v>87.28173529411765</v>
       </c>
     </row>
     <row r="1621" spans="1:4">
@@ -24008,7 +24008,7 @@
         <v>241</v>
       </c>
       <c r="D1626">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1627" spans="1:4">
@@ -24022,7 +24022,7 @@
         <v>242</v>
       </c>
       <c r="D1627">
-        <v>161.2136585000516</v>
+        <v>146.3844656696262</v>
       </c>
     </row>
     <row r="1628" spans="1:4">
@@ -24078,7 +24078,7 @@
         <v>246</v>
       </c>
       <c r="D1631">
-        <v>134.6016460226385</v>
+        <v>136.3819875501646</v>
       </c>
     </row>
     <row r="1632" spans="1:4">
@@ -24092,7 +24092,7 @@
         <v>247</v>
       </c>
       <c r="D1632">
-        <v>185.9094198838563</v>
+        <v>161.8475398309979</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -24176,7 +24176,7 @@
         <v>253</v>
       </c>
       <c r="D1638">
-        <v>113.2862626710348</v>
+        <v>113.138971</v>
       </c>
     </row>
     <row r="1639" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>260</v>
       </c>
       <c r="D1645">
-        <v>102.9944548868149</v>
+        <v>100.7504353469172</v>
       </c>
     </row>
     <row r="1646" spans="1:4">
@@ -24330,7 +24330,7 @@
         <v>264</v>
       </c>
       <c r="D1649">
-        <v>116.1990194955424</v>
+        <v>108.8841215967377</v>
       </c>
     </row>
     <row r="1650" spans="1:4">
@@ -24344,7 +24344,7 @@
         <v>265</v>
       </c>
       <c r="D1650">
-        <v>113.0690060518546</v>
+        <v>120.6650468947228</v>
       </c>
     </row>
     <row r="1651" spans="1:4">
@@ -24456,7 +24456,7 @@
         <v>273</v>
       </c>
       <c r="D1658">
-        <v>124.1724102119781</v>
+        <v>127.7528321250867</v>
       </c>
     </row>
     <row r="1659" spans="1:4">
@@ -24652,7 +24652,7 @@
         <v>287</v>
       </c>
       <c r="D1672">
-        <v>115.6115175000001</v>
+        <v>113.5465831032878</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>403.3772684795787</v>
+        <v>403.3692215107249</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>114.9087762820512</v>
+        <v>114.9260097575426</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27326,7 +27326,7 @@
         <v>199</v>
       </c>
       <c r="D1863">
-        <v>159.0632910053903</v>
+        <v>158.9703090346089</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -27466,7 +27466,7 @@
         <v>209</v>
       </c>
       <c r="D1873">
-        <v>123.8549681734975</v>
+        <v>123.4287773025582</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
@@ -27592,7 +27592,7 @@
         <v>218</v>
       </c>
       <c r="D1882">
-        <v>57.51177936287055</v>
+        <v>59.75154132349486</v>
       </c>
     </row>
     <row r="1883" spans="1:4">
@@ -27606,7 +27606,7 @@
         <v>219</v>
       </c>
       <c r="D1883">
-        <v>104.14738044439</v>
+        <v>92.39464158669331</v>
       </c>
     </row>
     <row r="1884" spans="1:4">
@@ -27704,7 +27704,7 @@
         <v>226</v>
       </c>
       <c r="D1890">
-        <v>103.9991163704402</v>
+        <v>105.9136390285882</v>
       </c>
     </row>
     <row r="1891" spans="1:4">
@@ -27774,7 +27774,7 @@
         <v>231</v>
       </c>
       <c r="D1895">
-        <v>132.45477264608</v>
+        <v>126.6565049211654</v>
       </c>
     </row>
     <row r="1896" spans="1:4">
@@ -27830,7 +27830,7 @@
         <v>235</v>
       </c>
       <c r="D1899">
-        <v>320.4997651145632</v>
+        <v>323.0134887625206</v>
       </c>
     </row>
     <row r="1900" spans="1:4">
@@ -27914,7 +27914,7 @@
         <v>241</v>
       </c>
       <c r="D1905">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="1906" spans="1:4">
@@ -27928,7 +27928,7 @@
         <v>242</v>
       </c>
       <c r="D1906">
-        <v>141.128381161896</v>
+        <v>134.3996350269387</v>
       </c>
     </row>
     <row r="1907" spans="1:4">
@@ -27984,7 +27984,7 @@
         <v>246</v>
       </c>
       <c r="D1910">
-        <v>116.7371723081324</v>
+        <v>117.9021045358016</v>
       </c>
     </row>
     <row r="1911" spans="1:4">
@@ -27998,7 +27998,7 @@
         <v>247</v>
       </c>
       <c r="D1911">
-        <v>256.7962037771804</v>
+        <v>223.5595907148831</v>
       </c>
     </row>
     <row r="1912" spans="1:4">
@@ -28082,7 +28082,7 @@
         <v>253</v>
       </c>
       <c r="D1917">
-        <v>115.1303002123044</v>
+        <v>114.9703928250578</v>
       </c>
     </row>
     <row r="1918" spans="1:4">
@@ -28180,7 +28180,7 @@
         <v>260</v>
       </c>
       <c r="D1924">
-        <v>129.7630835157448</v>
+        <v>126.9358352402263</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -28236,7 +28236,7 @@
         <v>264</v>
       </c>
       <c r="D1928">
-        <v>119.1681060118827</v>
+        <v>111.6662997827493</v>
       </c>
     </row>
     <row r="1929" spans="1:4">
@@ -28250,7 +28250,7 @@
         <v>265</v>
       </c>
       <c r="D1929">
-        <v>115.1788423346107</v>
+        <v>122.9166231921407</v>
       </c>
     </row>
     <row r="1930" spans="1:4">
@@ -28362,7 +28362,7 @@
         <v>273</v>
       </c>
       <c r="D1937">
-        <v>112.2903763915828</v>
+        <v>115.5191526879373</v>
       </c>
     </row>
     <row r="1938" spans="1:4">
@@ -28558,7 +28558,7 @@
         <v>287</v>
       </c>
       <c r="D1951">
-        <v>101.8920141666666</v>
+        <v>100.0721234727914</v>
       </c>
     </row>
     <row r="1952" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>114.8198386606316</v>
+        <v>114.8364051746395</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -31232,7 +31232,7 @@
         <v>199</v>
       </c>
       <c r="D2142">
-        <v>122.1006458270557</v>
+        <v>121.965525633816</v>
       </c>
     </row>
     <row r="2143" spans="1:4">
@@ -31372,7 +31372,7 @@
         <v>209</v>
       </c>
       <c r="D2152">
-        <v>110.222773</v>
+        <v>108.1445667041942</v>
       </c>
     </row>
     <row r="2153" spans="1:4">
@@ -31498,7 +31498,7 @@
         <v>218</v>
       </c>
       <c r="D2161">
-        <v>58.45957656038731</v>
+        <v>60.73624991782287</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -31512,7 +31512,7 @@
         <v>219</v>
       </c>
       <c r="D2162">
-        <v>96.82719264592933</v>
+        <v>85.90051638546269</v>
       </c>
     </row>
     <row r="2163" spans="1:4">
@@ -31610,7 +31610,7 @@
         <v>226</v>
       </c>
       <c r="D2169">
-        <v>122.9535965991006</v>
+        <v>125.2170528168564</v>
       </c>
     </row>
     <row r="2170" spans="1:4">
@@ -31680,7 +31680,7 @@
         <v>231</v>
       </c>
       <c r="D2174">
-        <v>100.8307174477338</v>
+        <v>96.41680707683793</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31736,7 +31736,7 @@
         <v>235</v>
       </c>
       <c r="D2178">
-        <v>187.5</v>
+        <v>188.9705882352941</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31820,7 +31820,7 @@
         <v>241</v>
       </c>
       <c r="D2184">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31834,7 +31834,7 @@
         <v>242</v>
       </c>
       <c r="D2185">
-        <v>114.7823782226171</v>
+        <v>113.1779804010194</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31890,7 +31890,7 @@
         <v>246</v>
       </c>
       <c r="D2189">
-        <v>127.3302412417768</v>
+        <v>128.0977738809678</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31904,7 +31904,7 @@
         <v>247</v>
       </c>
       <c r="D2190">
-        <v>109.5691800540146</v>
+        <v>95.38786277812399</v>
       </c>
     </row>
     <row r="2191" spans="1:4">
@@ -31988,7 +31988,7 @@
         <v>253</v>
       </c>
       <c r="D2196">
-        <v>100.7218984110108</v>
+        <v>100.5886521851069</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -32086,7 +32086,7 @@
         <v>260</v>
       </c>
       <c r="D2203">
-        <v>114.176347105178</v>
+        <v>111.6886990645167</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -32142,7 +32142,7 @@
         <v>264</v>
       </c>
       <c r="D2207">
-        <v>138.3043275472018</v>
+        <v>129.5978682383138</v>
       </c>
     </row>
     <row r="2208" spans="1:4">
@@ -32156,7 +32156,7 @@
         <v>265</v>
       </c>
       <c r="D2208">
-        <v>114.326829832295</v>
+        <v>122.007372</v>
       </c>
     </row>
     <row r="2209" spans="1:4">
@@ -32268,7 +32268,7 @@
         <v>273</v>
       </c>
       <c r="D2216">
-        <v>105.9782332062678</v>
+        <v>110.438514469767</v>
       </c>
     </row>
     <row r="2217" spans="1:4">
@@ -32464,7 +32464,7 @@
         <v>287</v>
       </c>
       <c r="D2230">
-        <v>115.5437175</v>
+        <v>113.4799940773769</v>
       </c>
     </row>
     <row r="2231" spans="1:4">
@@ -35138,7 +35138,7 @@
         <v>199</v>
       </c>
       <c r="D2421">
-        <v>131.5052756772666</v>
+        <v>131.3424121102272</v>
       </c>
     </row>
     <row r="2422" spans="1:4">
@@ -35404,7 +35404,7 @@
         <v>218</v>
       </c>
       <c r="D2440">
-        <v>65.69019853908075</v>
+        <v>68.24846415881358</v>
       </c>
     </row>
     <row r="2441" spans="1:4">
@@ -35418,7 +35418,7 @@
         <v>219</v>
       </c>
       <c r="D2441">
-        <v>107.7267926013007</v>
+        <v>95.57012715260636</v>
       </c>
     </row>
     <row r="2442" spans="1:4">
@@ -35516,7 +35516,7 @@
         <v>226</v>
       </c>
       <c r="D2448">
-        <v>109.3886638935072</v>
+        <v>111.4024028835838</v>
       </c>
     </row>
     <row r="2449" spans="1:4">
@@ -35586,7 +35586,7 @@
         <v>231</v>
       </c>
       <c r="D2453">
-        <v>118.194654484654</v>
+        <v>113.0206298975068</v>
       </c>
     </row>
     <row r="2454" spans="1:4">
@@ -35642,7 +35642,7 @@
         <v>235</v>
       </c>
       <c r="D2457">
-        <v>100.1489506493507</v>
+        <v>100.9344326152279</v>
       </c>
     </row>
     <row r="2458" spans="1:4">
@@ -35726,7 +35726,7 @@
         <v>241</v>
       </c>
       <c r="D2463">
-        <v>100</v>
+        <v>93.0408472012103</v>
       </c>
     </row>
     <row r="2464" spans="1:4">
@@ -35740,7 +35740,7 @@
         <v>242</v>
       </c>
       <c r="D2464">
-        <v>116.2822503797276</v>
+        <v>114.0654249824813</v>
       </c>
     </row>
     <row r="2465" spans="1:4">
@@ -35796,7 +35796,7 @@
         <v>246</v>
       </c>
       <c r="D2468">
-        <v>121.2373832006382</v>
+        <v>122.4336338061644</v>
       </c>
     </row>
     <row r="2469" spans="1:4">
@@ -35810,7 +35810,7 @@
         <v>247</v>
       </c>
       <c r="D2469">
-        <v>100.9373978498324</v>
+        <v>87.8732746793786</v>
       </c>
     </row>
     <row r="2470" spans="1:4">
@@ -35894,7 +35894,7 @@
         <v>253</v>
       </c>
       <c r="D2475">
-        <v>112.6282316450168</v>
+        <v>112.4722203542584</v>
       </c>
     </row>
     <row r="2476" spans="1:4">
@@ -35992,7 +35992,7 @@
         <v>260</v>
       </c>
       <c r="D2482">
-        <v>103.2516167178251</v>
+        <v>101.0019941949868</v>
       </c>
     </row>
     <row r="2483" spans="1:4">
@@ -36048,7 +36048,7 @@
         <v>264</v>
       </c>
       <c r="D2486">
-        <v>117.942533</v>
+        <v>110.5178783809952</v>
       </c>
     </row>
     <row r="2487" spans="1:4">
@@ -36062,7 +36062,7 @@
         <v>265</v>
       </c>
       <c r="D2487">
-        <v>115.0782432142341</v>
+        <v>122.8092657650112</v>
       </c>
     </row>
     <row r="2488" spans="1:4">
@@ -36174,7 +36174,7 @@
         <v>273</v>
       </c>
       <c r="D2495">
-        <v>97.80722195240905</v>
+        <v>100.4851406125243</v>
       </c>
     </row>
     <row r="2496" spans="1:4">
@@ -36370,7 +36370,7 @@
         <v>287</v>
       </c>
       <c r="D2509">
-        <v>93.17820882308081</v>
+        <v>91.51395518656216</v>
       </c>
     </row>
     <row r="2510" spans="1:4">
